--- a/medicine/Soins infirmiers et profession infirmière/Hôpital_Henry_Gabrielle/Hôpital_Henry_Gabrielle.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Hôpital_Henry_Gabrielle/Hôpital_Henry_Gabrielle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Henry_Gabrielle</t>
+          <t>Hôpital_Henry_Gabrielle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'hôpital Henry Gabrielle[1] se situe à huit kilomètres de Lyon, dans le sud de la commune de Saint-Genis-Laval (Rhône), et appartient au groupement hospitalier sud des Hospices civils de Lyon.
+L'hôpital Henry Gabrielle se situe à huit kilomètres de Lyon, dans le sud de la commune de Saint-Genis-Laval (Rhône), et appartient au groupement hospitalier sud des Hospices civils de Lyon.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Henry_Gabrielle</t>
+          <t>Hôpital_Henry_Gabrielle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital tire son nom du Dr Henry Gabrielle, ancien administrateur des HCL et ancien maire de la commune de Beynost de 1945 à 1965.
-Les terrains de l'hôpital sont acquis en janvier 1956[2]. L'hôpital a été construit entre 1966 et 1969. Dès sa construction, l'établissement se spécialise dans la rééducation[3]. Sa réalisation a été confiée aux architectes D.P.L.G. Bonnamour et Mortamet.
-En 1977, un nouveau bâtiment ouvre sur le site avec 75 lits. Ce bâtiment est financé par la caisse nationale de retraite des cadres[3].
-En 2001, l'hôpital possède près de 250 lits dont une vaste majorité est destinée à la rééducation et la réadaptation, notamment lourde, d'ordre neurologique, traumatique, ou encore pour les amputés, le restant des lits étant destiné à la chirurgie[4].
+Les terrains de l'hôpital sont acquis en janvier 1956. L'hôpital a été construit entre 1966 et 1969. Dès sa construction, l'établissement se spécialise dans la rééducation. Sa réalisation a été confiée aux architectes D.P.L.G. Bonnamour et Mortamet.
+En 1977, un nouveau bâtiment ouvre sur le site avec 75 lits. Ce bâtiment est financé par la caisse nationale de retraite des cadres.
+En 2001, l'hôpital possède près de 250 lits dont une vaste majorité est destinée à la rééducation et la réadaptation, notamment lourde, d'ordre neurologique, traumatique, ou encore pour les amputés, le restant des lits étant destiné à la chirurgie.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Henry_Gabrielle</t>
+          <t>Hôpital_Henry_Gabrielle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Structure et services</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2021, l'hôpital comporte 205 lits et places. Sur une année, ce sont plus de 50 000 journées d’hospitalisation et d'ambulatoire qui ont été réalisé. 371 membres du personnels des HCL travaillent dans l'hôpital, parmi lesquels 41 médecins.
-L'établissement comprend deux services de médecine physique et de réadaptation, dont un spécialisé dans la neurologie, une plateforme mouvement et handicap et assure un accompagnement social et de soutien[5].
+L'établissement comprend deux services de médecine physique et de réadaptation, dont un spécialisé dans la neurologie, une plateforme mouvement et handicap et assure un accompagnement social et de soutien.
 </t>
         </is>
       </c>
